--- a/CompanyAccounting.ViewModel/ReportTemplates/PayRollReportTemplate.xlsx
+++ b/CompanyAccounting.ViewModel/ReportTemplates/PayRollReportTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Компания</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>Ведомость зарплат. Подитог по подразделениям</t>
+  </si>
+  <si>
+    <t>#Company#CompanyName</t>
+  </si>
+  <si>
+    <t>#Department#Salary</t>
+  </si>
+  <si>
+    <t>#Company#Salary</t>
   </si>
 </sst>
 </file>
@@ -136,11 +145,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,7 +448,7 @@
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -451,24 +460,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="17.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -487,20 +496,20 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="17.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -512,22 +521,22 @@
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="17.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2"/>
@@ -535,10 +544,10 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
